--- a/trunk/cs583/docs/All AlgorithmsFormatedStats2D.xlsx
+++ b/trunk/cs583/docs/All AlgorithmsFormatedStats2D.xlsx
@@ -4,17 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="22800" windowHeight="12090"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="22815" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="formatedStats2D" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphs" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>NumberOfCentroids</t>
   </si>
@@ -46,10 +50,13 @@
     <t>Time (mins)</t>
   </si>
   <si>
-    <t>R-Tree</t>
+    <t>Hierarch</t>
   </si>
   <si>
-    <t>Hierarch</t>
+    <t>R-Tree 1st test set</t>
+  </si>
+  <si>
+    <t>R-Tree 2st test set</t>
   </si>
 </sst>
 </file>
@@ -783,23 +790,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="58288384"/>
-        <c:axId val="58298368"/>
+        <c:axId val="72050560"/>
+        <c:axId val="105418752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58288384"/>
+        <c:axId val="72050560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58298368"/>
+        <c:crossAx val="105418752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58298368"/>
+        <c:axId val="105418752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -807,7 +814,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58288384"/>
+        <c:crossAx val="72050560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -820,7 +827,600 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>R-Tree Time Complexity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Analysis</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>R-tree</c:v>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$A$127:$A$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$127:$B$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2839</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4534</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6676</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12569</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>107185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>884447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="67008384"/>
+        <c:axId val="68595712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="67008384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Points</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="68595712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="68595712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time In </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>milliseconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67008384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hierarchical Time Complexity Analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Heirarch</c:v>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$A$104:$A$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$104:$B$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="105969536"/>
+        <c:axId val="69125632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="105969536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Points</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69125632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="69125632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+                  <a:t>Time In milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105969536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K-means Time Complexity Analysis</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>K-means</c:v>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$88:$B$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$C$88:$C$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="87792256"/>
+        <c:axId val="94528640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="87792256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="94528640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="94528640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time In milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87792256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -840,12 +1440,17 @@
           <c:tx>
             <c:v>R-tree</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>formatedStats2D!$A$111:$A$123</c:f>
+              <c:f>formatedStats2D!$A$127:$A$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
@@ -884,54 +1489,66 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>formatedStats2D!$B$111:$B$123</c:f>
+              <c:f>formatedStats2D!$B$127:$B$141</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>138</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>376</c:v>
+                  <c:v>397</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>838</c:v>
+                  <c:v>809</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2968</c:v>
+                  <c:v>2839</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4461</c:v>
+                  <c:v>4534</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6315</c:v>
+                  <c:v>6676</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13643</c:v>
+                  <c:v>12569</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23364</c:v>
+                  <c:v>23458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>107185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>884447</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -943,12 +1560,17 @@
           <c:tx>
             <c:v>K-means</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>formatedStats2D!$B$88:$B$95</c:f>
+              <c:f>formatedStats2D!$B$88:$B$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -972,16 +1594,22 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>formatedStats2D!$C$88:$C$95</c:f>
+              <c:f>formatedStats2D!$C$88:$C$97</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -1005,28 +1633,34 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="58318848"/>
-        <c:axId val="58320384"/>
+        <c:axId val="50786688"/>
+        <c:axId val="50788224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="58318848"/>
+        <c:axId val="50786688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58320384"/>
+        <c:crossAx val="50788224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="58320384"/>
+        <c:axId val="50788224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1034,7 +1668,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58318848"/>
+        <c:crossAx val="50786688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1047,7 +1681,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1655,23 +2289,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="76600832"/>
-        <c:axId val="76599296"/>
+        <c:axId val="51876992"/>
+        <c:axId val="51878528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="76600832"/>
+        <c:axId val="51876992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76599296"/>
+        <c:crossAx val="51878528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76599296"/>
+        <c:axId val="51878528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1679,7 +2313,427 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76600832"/>
+        <c:crossAx val="51876992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>R-tree</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="12700" cmpd="sng"/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>[1]formatedRtreeStats2D!$A$1:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>[1]formatedRtreeStats2D!$B$1:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2839</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4534</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6676</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12569</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>107185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>884447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="55616256"/>
+        <c:axId val="55617792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="55616256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55617792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="55617792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55616256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>R-Tree Time Complexity</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Analysis</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>R-tree</c:v>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$A$127:$A$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$127:$B$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2839</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4534</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6676</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12569</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>107185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>884447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="67001728"/>
+        <c:axId val="67000192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="67001728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Of Points</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67000192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="67000192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time In MS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67001728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1693,6 +2747,1608 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Complexity Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Heirarch</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$A$104:$A$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$104:$B$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>R-Tree</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$A$111:$A$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$111:$B$118</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>838</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>K-maens</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$88:$B$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$C$88:$C$93</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="62745216"/>
+        <c:axId val="72083712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="62745216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Points</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72083712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="72083712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+                  <a:t>Time In milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62745216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time Complexity Comparison of K-means and R-tree</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>R-tree</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$A$111:$A$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$111:$B$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2968</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4461</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6315</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13643</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23364</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>K-means</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$88:$B$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$C$88:$C$95</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6779</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="87693568"/>
+        <c:axId val="87715840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="87693568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87715840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="87715840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time In milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87693568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K-Means </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Time Complexity Analysis w/Different Number of Centroids</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2131</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4711</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7249</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29829</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$15:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$C$15:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21430</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5607</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80184</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>125775</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>183537</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$28:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$C$28:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1528</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4513</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8730</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15036</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56829</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81315</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>107544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>5 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$40:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$C$40:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2241</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6173</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16978</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23858</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>138693</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>221497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>6 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$52:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$C$52:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2623</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9593</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41489</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>186629</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>254031</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>423727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>7 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$64:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$C$64:$C$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12890</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30469</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39943</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>185220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>302894</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>412034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="87776256"/>
+        <c:axId val="87790336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="87776256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87790336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="87790336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time In </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>milliseconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87776256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Time Complexity Comparison of K-means and R-tree</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>R-tree</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$A$127:$A$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$127:$B$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2839</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4534</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6676</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12569</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>107185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>884447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>K-means</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$88:$B$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$C$88:$C$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="105736064"/>
+        <c:axId val="105965056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="105736064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105965056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="105965056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time In milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="105736064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1790,7 +4446,416 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="formatedRtreeStats2D"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1">
+            <v>15</v>
+          </cell>
+          <cell r="B1">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>50</v>
+          </cell>
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>100</v>
+          </cell>
+          <cell r="B3">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>250</v>
+          </cell>
+          <cell r="B4">
+            <v>31</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>375</v>
+          </cell>
+          <cell r="B5">
+            <v>85</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>500</v>
+          </cell>
+          <cell r="B6">
+            <v>132</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>750</v>
+          </cell>
+          <cell r="B7">
+            <v>397</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>1000</v>
+          </cell>
+          <cell r="B8">
+            <v>809</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>1500</v>
+          </cell>
+          <cell r="B9">
+            <v>2839</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>1750</v>
+          </cell>
+          <cell r="B10">
+            <v>4534</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>2000</v>
+          </cell>
+          <cell r="B11">
+            <v>6676</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>2500</v>
+          </cell>
+          <cell r="B12">
+            <v>12569</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>3000</v>
+          </cell>
+          <cell r="B13">
+            <v>23458</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>5000</v>
+          </cell>
+          <cell r="B14">
+            <v>107185</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>10000</v>
+          </cell>
+          <cell r="B15">
+            <v>884447</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2078,11 +5143,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4699,7 +7764,7 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4752,7 +7817,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4865,10 +7930,158 @@
       </c>
       <c r="B123">
         <v>23364</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>15</v>
+      </c>
+      <c r="B127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>50</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>100</v>
+      </c>
+      <c r="B129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>250</v>
+      </c>
+      <c r="B130">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>375</v>
+      </c>
+      <c r="B131">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>500</v>
+      </c>
+      <c r="B132">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>750</v>
+      </c>
+      <c r="B133">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>1000</v>
+      </c>
+      <c r="B134">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>1500</v>
+      </c>
+      <c r="B135">
+        <v>2839</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>1750</v>
+      </c>
+      <c r="B136">
+        <v>4534</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>2000</v>
+      </c>
+      <c r="B137">
+        <v>6676</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>2500</v>
+      </c>
+      <c r="B138">
+        <v>12569</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>3000</v>
+      </c>
+      <c r="B139">
+        <v>23458</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>5000</v>
+      </c>
+      <c r="B140">
+        <v>107185</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>10000</v>
+      </c>
+      <c r="B141">
+        <v>884447</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/cs583/docs/All AlgorithmsFormatedStats2D.xlsx
+++ b/trunk/cs583/docs/All AlgorithmsFormatedStats2D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="22815" windowHeight="12090" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="-90" windowWidth="22815" windowHeight="12090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="formatedStats2D" sheetId="1" r:id="rId1"/>
@@ -790,23 +790,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72050560"/>
-        <c:axId val="105418752"/>
+        <c:axId val="67549824"/>
+        <c:axId val="67559808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72050560"/>
+        <c:axId val="67549824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105418752"/>
+        <c:crossAx val="67559808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105418752"/>
+        <c:axId val="67559808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -814,7 +814,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72050560"/>
+        <c:crossAx val="67549824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -827,13 +827,1032 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K-Means </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Time Complexity Analysis w/Different Number of Centroids</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2131</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4711</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7249</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29829</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$15:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$C$15:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1424</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21430</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5607</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80184</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>125775</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>183537</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$28:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$C$28:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1528</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4513</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8730</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15036</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56829</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81315</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>107544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>5 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$40:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$C$40:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2241</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6173</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16978</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23858</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109166</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>138693</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>221497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>6 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$52:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$C$52:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1138</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2623</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9593</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41489</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>186629</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>254031</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>423727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>7 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$64:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$C$64:$C$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4210</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12890</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30469</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39943</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>185220</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>302894</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>412034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="70948736"/>
+        <c:axId val="70950912"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="70948736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70950912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="70950912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time In </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>milliseconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70948736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Time Complexity Comparison of K-means and R-tree</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>R-tree</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$A$127:$A$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1750</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$127:$B$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2839</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4534</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6676</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12569</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23458</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>107185</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>884447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>K-means</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$88:$B$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$C$88:$C$97</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6779</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16039</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="71041792"/>
+        <c:axId val="71043712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="71041792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71043712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="71043712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time In milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71041792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -984,11 +2003,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="67008384"/>
-        <c:axId val="68595712"/>
+        <c:axId val="71073152"/>
+        <c:axId val="71087616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67008384"/>
+        <c:axId val="71073152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1018,12 +2037,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68595712"/>
+        <c:crossAx val="71087616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68595712"/>
+        <c:axId val="71087616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1055,7 +2074,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67008384"/>
+        <c:crossAx val="71073152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1068,13 +2087,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1160,11 +2179,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="105969536"/>
-        <c:axId val="69125632"/>
+        <c:axId val="72165632"/>
+        <c:axId val="72184192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105969536"/>
+        <c:axId val="72165632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,12 +2213,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69125632"/>
+        <c:crossAx val="72184192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69125632"/>
+        <c:axId val="72184192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1226,7 +2245,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105969536"/>
+        <c:crossAx val="72165632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1239,13 +2258,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1347,11 +2366,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87792256"/>
-        <c:axId val="94528640"/>
+        <c:axId val="72209536"/>
+        <c:axId val="72211456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87792256"/>
+        <c:axId val="72209536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1376,12 +2395,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94528640"/>
+        <c:crossAx val="72211456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94528640"/>
+        <c:axId val="72211456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,7 +2426,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87792256"/>
+        <c:crossAx val="72209536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1420,7 +2439,1258 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K-means</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Number Of Iterations Before Centoirds Converged Per Cenroid</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11192633311538011"/>
+          <c:y val="1.7941950021544469E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10227911667262632"/>
+          <c:y val="0.17042309566920888"/>
+          <c:w val="0.64060663987359689"/>
+          <c:h val="0.57198230292698649"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>8 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$76:$B$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$D$76:$D$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$15:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$D$15:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$28:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$D$28:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$40:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$D$40:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>6 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$52:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$D$52:$D$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>7 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$64:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$D$64:$D$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="110358528"/>
+        <c:axId val="110360448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="110358528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110360448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="110360448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110358528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K-means</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Number of Iterations Before Centoirds Converged Avg. over all Centroids     </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10227911667262632"/>
+          <c:y val="0.17042309566920891"/>
+          <c:w val="0.64060663987359734"/>
+          <c:h val="0.57198230292698649"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Avgerage Number of Iterations</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$88:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$D$88:$D$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Max Number of Iterations</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$88:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$G$88:$G$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Minimum Number of Iterations</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$88:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$H$88:$H$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="110402944"/>
+        <c:axId val="110409216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="110402944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110409216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="110409216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110402944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1431,7 +3701,17 @@
   <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18692672912945163"/>
+          <c:y val="7.4548702245552642E-2"/>
+          <c:w val="0.61476924989765525"/>
+          <c:h val="0.79822506561679785"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:ser>
@@ -1644,23 +3924,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="50786688"/>
-        <c:axId val="50788224"/>
+        <c:axId val="67580288"/>
+        <c:axId val="67581824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="50786688"/>
+        <c:axId val="67580288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50788224"/>
+        <c:crossAx val="67581824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="50788224"/>
+        <c:axId val="67581824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1668,7 +3948,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50786688"/>
+        <c:crossAx val="67580288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1681,7 +3961,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2289,23 +4569,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="51876992"/>
-        <c:axId val="51878528"/>
+        <c:axId val="67630208"/>
+        <c:axId val="67631744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51876992"/>
+        <c:axId val="67630208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51878528"/>
+        <c:crossAx val="67631744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="51878528"/>
+        <c:axId val="67631744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2313,7 +4593,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51876992"/>
+        <c:crossAx val="67630208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2326,7 +4606,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2473,23 +4753,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="55616256"/>
-        <c:axId val="55617792"/>
+        <c:axId val="68209664"/>
+        <c:axId val="68215552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55616256"/>
+        <c:axId val="68209664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55617792"/>
+        <c:crossAx val="68215552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55617792"/>
+        <c:axId val="68215552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2497,7 +4777,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55616256"/>
+        <c:crossAx val="68209664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2510,7 +4790,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2667,11 +4947,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="67001728"/>
-        <c:axId val="67000192"/>
+        <c:axId val="68236416"/>
+        <c:axId val="68238336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67001728"/>
+        <c:axId val="68236416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2701,12 +4981,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67000192"/>
+        <c:crossAx val="68238336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67000192"/>
+        <c:axId val="68238336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2733,7 +5013,829 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67001728"/>
+        <c:crossAx val="68236416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K-means</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Number Of Iterations Before Centoirds Converged Per Cenroid</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11192633311538011"/>
+          <c:y val="1.7941950021544469E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10227911667262632"/>
+          <c:y val="0.17042309566920882"/>
+          <c:w val="0.64060663987359645"/>
+          <c:h val="0.5719823029269866"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>8 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$76:$B$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$D$76:$D$87</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$15:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$D$15:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$28:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$D$28:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$40:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$D$40:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>6 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$52:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$D$52:$D$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>7 Centroids</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$64:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$D$64:$D$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="74711808"/>
+        <c:axId val="74549504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="74711808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74549504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="74549504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74711808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2752,7 +5854,436 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>K-means</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Number of Iterations Before Centoirds Converged Avg. over all Centroids     </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10227911667262632"/>
+          <c:y val="0.17042309566920888"/>
+          <c:w val="0.64060663987359689"/>
+          <c:h val="0.57198230292698649"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Avgerage Number of Iterations</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$88:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$D$88:$D$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Max Number of Iterations</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$88:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$G$88:$G$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>256</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Minimum Number of Iterations</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$B$88:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>formatedStats2D!$H$88:$H$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="103409152"/>
+        <c:axId val="109831296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="103409152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="109831296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="109831296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103409152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2968,11 +6499,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="62745216"/>
-        <c:axId val="72083712"/>
+        <c:axId val="68338816"/>
+        <c:axId val="68340736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62745216"/>
+        <c:axId val="68338816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3002,12 +6533,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72083712"/>
+        <c:crossAx val="68340736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72083712"/>
+        <c:axId val="68340736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3034,7 +6565,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62745216"/>
+        <c:crossAx val="68338816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3047,13 +6578,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -3256,11 +6787,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87693568"/>
-        <c:axId val="87715840"/>
+        <c:axId val="69689344"/>
+        <c:axId val="69691264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87693568"/>
+        <c:axId val="69689344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3285,12 +6816,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87715840"/>
+        <c:crossAx val="69691264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87715840"/>
+        <c:axId val="69691264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3316,7 +6847,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87693568"/>
+        <c:crossAx val="69689344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3329,1026 +6860,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>K-Means </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>Time Complexity Analysis w/Different Number of Centroids</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>2 Centroids</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>formatedStats2D!$B$2:$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>formatedStats2D!$C$2:$C$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>779</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2131</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4711</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7249</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>29829</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>41150</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>62987</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>3 Centroids</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>formatedStats2D!$B$15:$B$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>formatedStats2D!$C$15:$C$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>541</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1424</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21430</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5607</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13700</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80184</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>125775</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>183537</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>4 Centroids</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>formatedStats2D!$B$28:$B$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>formatedStats2D!$C$28:$C$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>672</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1528</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4513</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8730</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15036</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>56829</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>81315</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>107544</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>5 Centroids</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>formatedStats2D!$B$40:$B$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>formatedStats2D!$C$40:$C$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>815</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2241</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6173</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16978</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23858</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>109166</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>138693</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>221497</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>6 Centroids</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>formatedStats2D!$B$52:$B$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>formatedStats2D!$C$52:$C$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>434</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1138</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2623</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9593</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21784</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41489</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>186629</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>254031</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>423727</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:v>7 Centroids</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>formatedStats2D!$B$64:$B$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>formatedStats2D!$C$64:$C$75</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>644</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1385</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4210</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12890</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>30469</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>39943</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>185220</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>302894</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>412034</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:axId val="87776256"/>
-        <c:axId val="87790336"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="87776256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Points</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87790336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="87790336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time In </a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
-                  <a:t>milliseconds</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87776256"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
-              <a:t>Time Complexity Comparison of K-means and R-tree</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>R-tree</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>formatedStats2D!$A$127:$A$141</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1750</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>formatedStats2D!$B$127:$B$141</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>809</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2839</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4534</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6676</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12569</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>23458</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>107185</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>884447</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>K-means</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>formatedStats2D!$B$88:$B$97</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>formatedStats2D!$C$88:$C$97</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>823</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2097</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6779</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16039</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25567</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="105736064"/>
-        <c:axId val="105965056"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="105736064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of Points</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105965056"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="105965056"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time In milliseconds</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105736064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4388,16 +6900,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233642</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>32497</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>533960</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>108697</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4501,6 +7013,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>448234</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>504264</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4693,16 +7265,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4716,6 +7288,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>559733</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>84605</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>198905</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>88527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>44263</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>144557</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5145,9 +7777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5173,13 +7805,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -8075,8 +10707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
